--- a/data/master_book.xlsx
+++ b/data/master_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>code</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>testname2</t>
+  </si>
+  <si>
+    <t>Thu Jun 25 16:38:52 2020</t>
   </si>
   <si>
     <t>Initialzied</t>
@@ -556,13 +559,13 @@
         <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>44006.71084490741</v>
+        <v>44007.69365740741</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" s="2">
-        <v>44006.71084490741</v>
+        <v>44007.69365740741</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -579,10 +582,10 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <v>15929</v>
+        <v>1714</v>
       </c>
       <c r="D3">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -597,31 +600,31 @@
         <v>0.1</v>
       </c>
       <c r="I3">
-        <v>2198531</v>
+        <v>51427</v>
       </c>
       <c r="J3">
-        <v>2191277</v>
+        <v>51258</v>
       </c>
       <c r="K3">
-        <v>-0.003299505074239084</v>
+        <v>-0.003286211523129873</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" s="2">
-        <v>44006.71153935185</v>
+      <c r="M3" t="s">
+        <v>25</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="2">
-        <v>44006.71153935185</v>
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>97801468</v>
+        <v>99948573</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -632,10 +635,10 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>18669</v>
+        <v>1582</v>
       </c>
       <c r="D4">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -650,31 +653,31 @@
         <v>0.1</v>
       </c>
       <c r="I4">
-        <v>2950144</v>
+        <v>41138</v>
       </c>
       <c r="J4">
-        <v>2940410</v>
+        <v>41002</v>
       </c>
       <c r="K4">
-        <v>-0.003299505074239091</v>
+        <v>-0.003305945840828431</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" s="2">
-        <v>44006.71153935185</v>
+      <c r="M4" t="s">
+        <v>25</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="2">
-        <v>44006.71153935185</v>
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>94851323</v>
+        <v>99907435</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -685,10 +688,10 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>16738</v>
+        <v>1315</v>
       </c>
       <c r="D5">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -703,31 +706,31 @@
         <v>0.1</v>
       </c>
       <c r="I5">
-        <v>2377152</v>
+        <v>32879</v>
       </c>
       <c r="J5">
-        <v>2369309</v>
+        <v>32771</v>
       </c>
       <c r="K5">
-        <v>-0.003299505074238871</v>
+        <v>-0.003284771434654339</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" s="2">
-        <v>44006.71153935185</v>
+      <c r="M5" t="s">
+        <v>25</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="2">
-        <v>44006.71153935185</v>
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>92474171</v>
+        <v>99874556</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -738,10 +741,10 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>1819</v>
+        <v>153</v>
       </c>
       <c r="D6">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -756,31 +759,31 @@
         <v>0.1</v>
       </c>
       <c r="I6">
-        <v>2023286</v>
+        <v>18856.56666666667</v>
       </c>
       <c r="J6">
-        <v>230285</v>
+        <v>1677</v>
       </c>
       <c r="K6">
-        <v>-0.8861825475378267</v>
+        <v>-0.9110654643740377</v>
       </c>
       <c r="L6">
-        <v>-155299</v>
-      </c>
-      <c r="M6" s="2">
-        <v>44006.71153935185</v>
+        <v>-29672.59038333334</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="2">
-        <v>44006.71153935185</v>
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
+        <v>25</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>92494117</v>
+        <v>99877453.84295</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -791,10 +794,10 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>1217</v>
+        <v>104</v>
       </c>
       <c r="D7">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -809,31 +812,31 @@
         <v>0.1</v>
       </c>
       <c r="I7">
-        <v>2763426</v>
+        <v>20569</v>
       </c>
       <c r="J7">
-        <v>179548</v>
+        <v>1347</v>
       </c>
       <c r="K7">
-        <v>-0.9350268090243371</v>
+        <v>-0.9345131022412368</v>
       </c>
       <c r="L7">
-        <v>-174586</v>
-      </c>
-      <c r="M7" s="2">
-        <v>44006.71153935185</v>
+        <v>-19221.2588</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
       </c>
       <c r="N7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="2">
-        <v>44006.71153935185</v>
+        <v>28</v>
+      </c>
+      <c r="O7" t="s">
+        <v>25</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>92506248</v>
+        <v>99878801.58415</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -844,10 +847,10 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>1127</v>
+        <v>140</v>
       </c>
       <c r="D8">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -862,31 +865,31 @@
         <v>0.1</v>
       </c>
       <c r="I8">
-        <v>2142785</v>
+        <v>10521.28</v>
       </c>
       <c r="J8">
-        <v>143801</v>
+        <v>1116</v>
       </c>
       <c r="K8">
-        <v>-0.9328903418699168</v>
+        <v>-0.8939292557559536</v>
       </c>
       <c r="L8">
-        <v>-218638</v>
-      </c>
-      <c r="M8" s="2">
-        <v>44006.71153935185</v>
+        <v>-19985.217</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
       </c>
       <c r="N8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="2">
-        <v>44006.71153935185</v>
+        <v>28</v>
+      </c>
+      <c r="O8" t="s">
+        <v>25</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>92521977</v>
+        <v>99881174.08715001</v>
       </c>
     </row>
   </sheetData>

--- a/data/master_book.xlsx
+++ b/data/master_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>code</t>
   </si>
@@ -22,13 +22,13 @@
     <t>name</t>
   </si>
   <si>
-    <t>cur_price</t>
-  </si>
-  <si>
-    <t>no_shares</t>
-  </si>
-  <si>
-    <t>no_reinvested</t>
+    <t>cprice</t>
+  </si>
+  <si>
+    <t>nshares</t>
+  </si>
+  <si>
+    <t>nreinv</t>
   </si>
   <si>
     <t>LLB</t>
@@ -40,25 +40,25 @@
     <t>UB</t>
   </si>
   <si>
-    <t>total_invested</t>
-  </si>
-  <si>
-    <t>cur_value</t>
-  </si>
-  <si>
-    <t>return_rate</t>
-  </si>
-  <si>
-    <t>return_realized</t>
-  </si>
-  <si>
-    <t>initial_inv_datetime</t>
-  </si>
-  <si>
-    <t>decision_made</t>
-  </si>
-  <si>
-    <t>decision_datetime</t>
+    <t>invtotal</t>
+  </si>
+  <si>
+    <t>cvalue</t>
+  </si>
+  <si>
+    <t>retrate</t>
+  </si>
+  <si>
+    <t>ret</t>
+  </si>
+  <si>
+    <t>init_invtime</t>
+  </si>
+  <si>
+    <t>dec_made</t>
+  </si>
+  <si>
+    <t>dec_time</t>
   </si>
   <si>
     <t>active</t>
@@ -67,7 +67,10 @@
     <t>cash</t>
   </si>
   <si>
-    <t>000000</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>005380</t>
   </si>
   <si>
     <t>005930</t>
@@ -76,31 +79,61 @@
     <t>017670</t>
   </si>
   <si>
+    <t>035720</t>
+  </si>
+  <si>
+    <t>036570</t>
+  </si>
+  <si>
+    <t>078930</t>
+  </si>
+  <si>
     <t>090430</t>
   </si>
   <si>
-    <t>list_initiated</t>
-  </si>
-  <si>
-    <t>testname0</t>
-  </si>
-  <si>
-    <t>testname1</t>
-  </si>
-  <si>
-    <t>testname2</t>
-  </si>
-  <si>
-    <t>Thu Jun 25 16:38:52 2020</t>
-  </si>
-  <si>
-    <t>Initialzied</t>
-  </si>
-  <si>
-    <t>new_entry</t>
-  </si>
-  <si>
-    <t>partial_sold</t>
+    <t>122630</t>
+  </si>
+  <si>
+    <t>207940</t>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>현대차</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
+  </si>
+  <si>
+    <t>SK텔레콤</t>
+  </si>
+  <si>
+    <t>카카오</t>
+  </si>
+  <si>
+    <t>엔씨소프트</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>아모레퍼시픽</t>
+  </si>
+  <si>
+    <t>KODEX 레버리지</t>
+  </si>
+  <si>
+    <t>삼성바이오로직스</t>
+  </si>
+  <si>
+    <t>Sun Jul  5 12:44:42 2020</t>
+  </si>
+  <si>
+    <t>loaded</t>
+  </si>
+  <si>
+    <t>EXCEPT</t>
   </si>
 </sst>
 </file>
@@ -462,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,7 +559,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -559,19 +592,19 @@
         <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>44007.69365740741</v>
+        <v>44017.53101851852</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="O2" s="2">
-        <v>44007.69365740741</v>
+        <v>44017.53101851852</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>100000000</v>
+        <v>300000000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -579,10 +612,10 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3">
-        <v>1714</v>
+        <v>99200</v>
       </c>
       <c r="D3">
         <v>30</v>
@@ -600,31 +633,31 @@
         <v>0.1</v>
       </c>
       <c r="I3">
-        <v>51427</v>
+        <v>3048131</v>
       </c>
       <c r="J3">
-        <v>51258</v>
+        <v>2958144</v>
       </c>
       <c r="K3">
-        <v>-0.003286211523129873</v>
+        <v>-0.0295</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="P3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>99948573</v>
+        <v>296951869</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -632,13 +665,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>1582</v>
+        <v>53600</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>1331</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -653,31 +686,31 @@
         <v>0.1</v>
       </c>
       <c r="I4">
-        <v>41138</v>
+        <v>69822222</v>
       </c>
       <c r="J4">
-        <v>41002</v>
+        <v>70913550</v>
       </c>
       <c r="K4">
-        <v>-0.003305945840828431</v>
+        <v>0.0156</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="P4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>99907435</v>
+        <v>227129647</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -685,172 +718,172 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>1315</v>
+        <v>221000</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>-0.15</v>
+        <v>-0.08</v>
       </c>
       <c r="G5">
-        <v>-0.05</v>
+        <v>0.0494</v>
       </c>
       <c r="H5">
-        <v>0.1</v>
+        <v>0.1364</v>
       </c>
       <c r="I5">
-        <v>32879</v>
+        <v>46716655</v>
       </c>
       <c r="J5">
-        <v>32771</v>
+        <v>49646324</v>
       </c>
       <c r="K5">
-        <v>-0.003284771434654339</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>99874556</v>
+        <v>180412992</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>153</v>
+        <v>294000</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>-0.15</v>
+        <v>-0.0429</v>
       </c>
       <c r="G6">
-        <v>-0.05</v>
+        <v>0.1008</v>
       </c>
       <c r="H6">
-        <v>0.1</v>
+        <v>0.1822</v>
       </c>
       <c r="I6">
-        <v>18856.56666666667</v>
+        <v>3112857</v>
       </c>
       <c r="J6">
-        <v>1677</v>
+        <v>3506832</v>
       </c>
       <c r="K6">
-        <v>-0.9110654643740377</v>
+        <v>0.1266</v>
       </c>
       <c r="L6">
-        <v>-29672.59038333334</v>
+        <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="O6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>99877453.84295</v>
+        <v>177300135</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>104</v>
+        <v>944000</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>-0.15</v>
+        <v>-0.0429</v>
       </c>
       <c r="G7">
-        <v>-0.05</v>
+        <v>0.1008</v>
       </c>
       <c r="H7">
-        <v>0.1</v>
+        <v>0.1822</v>
       </c>
       <c r="I7">
-        <v>20569</v>
+        <v>3259368</v>
       </c>
       <c r="J7">
-        <v>1347</v>
+        <v>3753344</v>
       </c>
       <c r="K7">
-        <v>-0.9345131022412368</v>
+        <v>0.1516</v>
       </c>
       <c r="L7">
-        <v>-19221.2588</v>
+        <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="O7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>99878801.58415</v>
+        <v>174040767</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>140</v>
+        <v>36950</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -865,31 +898,190 @@
         <v>0.1</v>
       </c>
       <c r="I8">
-        <v>10521.28</v>
+        <v>6712662</v>
       </c>
       <c r="J8">
-        <v>1116</v>
+        <v>6280539</v>
       </c>
       <c r="K8">
-        <v>-0.8939292557559536</v>
+        <v>-0.0644</v>
       </c>
       <c r="L8">
-        <v>-19985.217</v>
+        <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N8" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>99881174.08715001</v>
+        <v>167328105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>167000</v>
+      </c>
+      <c r="D9">
+        <v>301</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>-0.063</v>
+      </c>
+      <c r="G9">
+        <v>0.0716</v>
+      </c>
+      <c r="H9">
+        <v>0.1575</v>
+      </c>
+      <c r="I9">
+        <v>46023098</v>
+      </c>
+      <c r="J9">
+        <v>49965398</v>
+      </c>
+      <c r="K9">
+        <v>0.0857</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>121305007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>12615</v>
+      </c>
+      <c r="D10">
+        <v>512</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>-0.08</v>
+      </c>
+      <c r="G10">
+        <v>0.0494</v>
+      </c>
+      <c r="H10">
+        <v>0.1364</v>
+      </c>
+      <c r="I10">
+        <v>6033052</v>
+      </c>
+      <c r="J10">
+        <v>6420126</v>
+      </c>
+      <c r="K10">
+        <v>0.06419999999999999</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>115271955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>771000</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>-0.0069</v>
+      </c>
+      <c r="G11">
+        <v>0.2172</v>
+      </c>
+      <c r="H11">
+        <v>0.3034</v>
+      </c>
+      <c r="I11">
+        <v>3140955</v>
+      </c>
+      <c r="J11">
+        <v>3831870</v>
+      </c>
+      <c r="K11">
+        <v>0.22</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>112131000</v>
       </c>
     </row>
   </sheetData>

--- a/data/master_book.xlsx
+++ b/data/master_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>code</t>
   </si>
@@ -85,9 +85,6 @@
     <t>036570</t>
   </si>
   <si>
-    <t>078930</t>
-  </si>
-  <si>
     <t>090430</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>엔씨소프트</t>
   </si>
   <si>
-    <t>GS</t>
-  </si>
-  <si>
     <t>아모레퍼시픽</t>
   </si>
   <si>
@@ -127,13 +121,10 @@
     <t>삼성바이오로직스</t>
   </si>
   <si>
-    <t>Sun Jul  5 12:44:42 2020</t>
+    <t>Sun Jul  5 15:48:29 2020</t>
   </si>
   <si>
     <t>loaded</t>
-  </si>
-  <si>
-    <t>EXCEPT</t>
   </si>
 </sst>
 </file>
@@ -495,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,7 +550,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -592,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>44017.53101851852</v>
+        <v>44017.65863425926</v>
       </c>
       <c r="N2" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="2">
-        <v>44017.53101851852</v>
+        <v>44017.65863425926</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -612,7 +603,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>99200</v>
@@ -645,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -665,7 +656,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>53600</v>
@@ -698,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
@@ -718,7 +709,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>221000</v>
@@ -751,13 +742,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
@@ -771,7 +762,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>294000</v>
@@ -804,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
@@ -824,7 +815,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>944000</v>
@@ -857,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
@@ -877,52 +868,52 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>36950</v>
+        <v>167000</v>
       </c>
       <c r="D8">
-        <v>171</v>
+        <v>301</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>-0.15</v>
+        <v>-0.063</v>
       </c>
       <c r="G8">
-        <v>-0.05</v>
+        <v>0.0716</v>
       </c>
       <c r="H8">
-        <v>0.1</v>
+        <v>0.1575</v>
       </c>
       <c r="I8">
-        <v>6712662</v>
+        <v>46023098</v>
       </c>
       <c r="J8">
-        <v>6280539</v>
+        <v>49965398</v>
       </c>
       <c r="K8">
-        <v>-0.0644</v>
+        <v>0.0857</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>167328105</v>
+        <v>128017669</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -930,52 +921,52 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9">
-        <v>167000</v>
+        <v>12615</v>
       </c>
       <c r="D9">
-        <v>301</v>
+        <v>512</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>-0.063</v>
+        <v>-0.08</v>
       </c>
       <c r="G9">
-        <v>0.0716</v>
+        <v>0.0494</v>
       </c>
       <c r="H9">
-        <v>0.1575</v>
+        <v>0.1364</v>
       </c>
       <c r="I9">
-        <v>46023098</v>
+        <v>6033052</v>
       </c>
       <c r="J9">
-        <v>49965398</v>
+        <v>6420126</v>
       </c>
       <c r="K9">
-        <v>0.0857</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>121305007</v>
+        <v>121984617</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -983,105 +974,52 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>12615</v>
+        <v>771000</v>
       </c>
       <c r="D10">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>-0.08</v>
+        <v>-0.0069</v>
       </c>
       <c r="G10">
-        <v>0.0494</v>
+        <v>0.2172</v>
       </c>
       <c r="H10">
-        <v>0.1364</v>
+        <v>0.3034</v>
       </c>
       <c r="I10">
-        <v>6033052</v>
+        <v>3140955</v>
       </c>
       <c r="J10">
-        <v>6420126</v>
+        <v>3831870</v>
       </c>
       <c r="K10">
-        <v>0.06419999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>115271955</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11">
-        <v>771000</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>-0.0069</v>
-      </c>
-      <c r="G11">
-        <v>0.2172</v>
-      </c>
-      <c r="H11">
-        <v>0.3034</v>
-      </c>
-      <c r="I11">
-        <v>3140955</v>
-      </c>
-      <c r="J11">
-        <v>3831870</v>
-      </c>
-      <c r="K11">
-        <v>0.22</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>112131000</v>
+        <v>118843662</v>
       </c>
     </row>
   </sheetData>

--- a/data/master_book.xlsx
+++ b/data/master_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>code</t>
   </si>
@@ -73,7 +73,7 @@
     <t>005380</t>
   </si>
   <si>
-    <t>005930</t>
+    <t>006800</t>
   </si>
   <si>
     <t>017670</t>
@@ -85,6 +85,9 @@
     <t>036570</t>
   </si>
   <si>
+    <t>078930</t>
+  </si>
+  <si>
     <t>090430</t>
   </si>
   <si>
@@ -100,7 +103,7 @@
     <t>현대차</t>
   </si>
   <si>
-    <t>삼성전자</t>
+    <t>미래에셋대우</t>
   </si>
   <si>
     <t>SK텔레콤</t>
@@ -112,6 +115,9 @@
     <t>엔씨소프트</t>
   </si>
   <si>
+    <t>GS</t>
+  </si>
+  <si>
     <t>아모레퍼시픽</t>
   </si>
   <si>
@@ -121,10 +127,13 @@
     <t>삼성바이오로직스</t>
   </si>
   <si>
-    <t>Sun Jul  5 15:48:29 2020</t>
+    <t>Fri Jul 10 18:19:07 2020</t>
   </si>
   <si>
     <t>loaded</t>
+  </si>
+  <si>
+    <t>EXCEPT</t>
   </si>
 </sst>
 </file>
@@ -486,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,7 +559,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -583,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>44017.65863425926</v>
+        <v>44022.76325231481</v>
       </c>
       <c r="N2" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="2">
-        <v>44017.65863425926</v>
+        <v>44022.76325231481</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -603,10 +612,10 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
-        <v>99200</v>
+        <v>98300</v>
       </c>
       <c r="D3">
         <v>30</v>
@@ -627,22 +636,22 @@
         <v>3048131</v>
       </c>
       <c r="J3">
-        <v>2958144</v>
+        <v>2931306</v>
       </c>
       <c r="K3">
-        <v>-0.0295</v>
+        <v>-0.0383</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -656,13 +665,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>53600</v>
+        <v>6850</v>
       </c>
       <c r="D4">
-        <v>1331</v>
+        <v>1044</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -677,31 +686,31 @@
         <v>0.1</v>
       </c>
       <c r="I4">
-        <v>69822222</v>
+        <v>7082221</v>
       </c>
       <c r="J4">
-        <v>70913550</v>
+        <v>7108491</v>
       </c>
       <c r="K4">
-        <v>0.0156</v>
+        <v>0.0037</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>227129647</v>
+        <v>289869648</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -709,52 +718,52 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>221000</v>
+        <v>215000</v>
       </c>
       <c r="D5">
         <v>226</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>-0.08</v>
+        <v>-0.1075</v>
       </c>
       <c r="G5">
-        <v>0.0494</v>
+        <v>0.025</v>
       </c>
       <c r="H5">
-        <v>0.1364</v>
+        <v>0.1235</v>
       </c>
       <c r="I5">
         <v>46716655</v>
       </c>
       <c r="J5">
-        <v>49646324</v>
+        <v>48298460</v>
       </c>
       <c r="K5">
-        <v>0.06270000000000001</v>
+        <v>0.0339</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>180412992</v>
+        <v>243152993</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -762,52 +771,52 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>294000</v>
+        <v>355500</v>
       </c>
       <c r="D6">
         <v>12</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>-0.0429</v>
+        <v>0.0949</v>
       </c>
       <c r="G6">
-        <v>0.1008</v>
+        <v>0.3317</v>
       </c>
       <c r="H6">
-        <v>0.1822</v>
+        <v>0.437</v>
       </c>
       <c r="I6">
         <v>3112857</v>
       </c>
       <c r="J6">
-        <v>3506832</v>
+        <v>4240404</v>
       </c>
       <c r="K6">
-        <v>0.1266</v>
+        <v>0.3622</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>177300135</v>
+        <v>240040136</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -815,7 +824,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>944000</v>
@@ -848,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>174040767</v>
+        <v>236780768</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -868,52 +877,52 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>167000</v>
+        <v>35000</v>
       </c>
       <c r="D8">
-        <v>301</v>
+        <v>171</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.063</v>
+        <v>-0.15</v>
       </c>
       <c r="G8">
-        <v>0.0716</v>
+        <v>-0.05</v>
       </c>
       <c r="H8">
-        <v>0.1575</v>
+        <v>0.1</v>
       </c>
       <c r="I8">
-        <v>46023098</v>
+        <v>6712662</v>
       </c>
       <c r="J8">
-        <v>49965398</v>
+        <v>5949090</v>
       </c>
       <c r="K8">
-        <v>0.0857</v>
+        <v>-0.1138</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>128017669</v>
+        <v>230068106</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -921,52 +930,52 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>12615</v>
+        <v>157000</v>
       </c>
       <c r="D9">
-        <v>512</v>
+        <v>301</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.08</v>
+        <v>-0.15</v>
       </c>
       <c r="G9">
-        <v>0.0494</v>
+        <v>-0.05</v>
       </c>
       <c r="H9">
-        <v>0.1364</v>
+        <v>0.1</v>
       </c>
       <c r="I9">
-        <v>6033052</v>
+        <v>46023098</v>
       </c>
       <c r="J9">
-        <v>6420126</v>
+        <v>46973458</v>
       </c>
       <c r="K9">
-        <v>0.06419999999999999</v>
+        <v>0.0206</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>121984617</v>
+        <v>184045008</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -974,52 +983,105 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>771000</v>
+        <v>12495</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>-0.0069</v>
+        <v>-0.08</v>
       </c>
       <c r="G10">
-        <v>0.2172</v>
+        <v>0.0494</v>
       </c>
       <c r="H10">
-        <v>0.3034</v>
+        <v>0.1364</v>
       </c>
       <c r="I10">
-        <v>3140955</v>
+        <v>141400</v>
       </c>
       <c r="J10">
-        <v>3831870</v>
+        <v>149040</v>
       </c>
       <c r="K10">
-        <v>0.22</v>
+        <v>0.054</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>118843662</v>
+        <v>183903608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>731000</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>-0.0429</v>
+      </c>
+      <c r="G11">
+        <v>0.1008</v>
+      </c>
+      <c r="H11">
+        <v>0.1822</v>
+      </c>
+      <c r="I11">
+        <v>3140955</v>
+      </c>
+      <c r="J11">
+        <v>3633070</v>
+      </c>
+      <c r="K11">
+        <v>0.1567</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>180762653</v>
       </c>
     </row>
   </sheetData>

--- a/data/master_book.xlsx
+++ b/data/master_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>code</t>
   </si>
@@ -70,18 +70,47 @@
     <t>-</t>
   </si>
   <si>
+    <t>005930</t>
+  </si>
+  <si>
+    <t>326030</t>
+  </si>
+  <si>
     <t>init</t>
   </si>
   <si>
-    <t>Tue Jul 14 14:30:26 2020</t>
+    <t>삼성전자</t>
+  </si>
+  <si>
+    <t>SK바이오팜</t>
+  </si>
+  <si>
+    <t>Wed Jul 15 16:57:10 2020</t>
+  </si>
+  <si>
+    <t>loaded</t>
+  </si>
+  <si>
+    <t>EXCEPT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -97,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,12 +134,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,62 +453,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -469,7 +517,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -501,20 +549,126 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>19</v>
+      <c r="M2" s="2">
+        <v>44027.7063425926</v>
       </c>
       <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" t="s">
-        <v>19</v>
+      <c r="O2" s="2">
+        <v>44027.7063425926</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
       </c>
       <c r="Q2">
         <v>300000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>54700</v>
+      </c>
+      <c r="D3">
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>-0.15</v>
+      </c>
+      <c r="G3">
+        <v>-0.05</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+      <c r="I3">
+        <v>3000866</v>
+      </c>
+      <c r="J3">
+        <v>3044820</v>
+      </c>
+      <c r="K3">
+        <v>0.0146</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>296999134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>177000</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>-0.15</v>
+      </c>
+      <c r="G4">
+        <v>-0.05</v>
+      </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="I4">
+        <v>2852449</v>
+      </c>
+      <c r="J4">
+        <v>2639070</v>
+      </c>
+      <c r="K4">
+        <v>-0.07480000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>294146685</v>
       </c>
     </row>
   </sheetData>

--- a/data/master_book.xlsx
+++ b/data/master_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>code</t>
   </si>
@@ -76,6 +76,12 @@
     <t>326030</t>
   </si>
   <si>
+    <t>000660</t>
+  </si>
+  <si>
+    <t>122630</t>
+  </si>
+  <si>
     <t>init</t>
   </si>
   <si>
@@ -85,13 +91,40 @@
     <t>SK바이오팜</t>
   </si>
   <si>
-    <t>Wed Jul 15 16:57:10 2020</t>
+    <t>SK하이닉스</t>
+  </si>
+  <si>
+    <t>KODEX 레버리지</t>
+  </si>
+  <si>
+    <t>Tue Jul 21 15:19:48 2020</t>
+  </si>
+  <si>
+    <t>Tue Jul 21 15:19:51 2020</t>
+  </si>
+  <si>
+    <t>Tue Jul 21 15:19:53 2020</t>
   </si>
   <si>
     <t>loaded</t>
   </si>
   <si>
-    <t>EXCEPT</t>
+    <t>new_ent</t>
+  </si>
+  <si>
+    <t>reinv</t>
+  </si>
+  <si>
+    <t>a_sold</t>
+  </si>
+  <si>
+    <t>Tue Jul 21 15:19:55 2020</t>
+  </si>
+  <si>
+    <t>Tue Jul 21 15:30:18 2020</t>
+  </si>
+  <si>
+    <t>Tue Jul 21 15:30:28 2020</t>
   </si>
 </sst>
 </file>
@@ -453,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,7 +550,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -550,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>44027.7063425926</v>
+        <v>44033.63872685185</v>
       </c>
       <c r="N2" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="2">
-        <v>44027.7063425926</v>
+        <v>44033.63872685185</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -570,46 +603,46 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>54700</v>
+        <v>55300</v>
       </c>
       <c r="D3">
         <v>56</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>-0.15</v>
+        <v>-0.1075</v>
       </c>
       <c r="G3">
-        <v>-0.05</v>
+        <v>0.025</v>
       </c>
       <c r="H3">
-        <v>0.1</v>
+        <v>0.1235</v>
       </c>
       <c r="I3">
         <v>3000866</v>
       </c>
       <c r="J3">
-        <v>3044820</v>
+        <v>3078219</v>
       </c>
       <c r="K3">
-        <v>0.0146</v>
+        <v>0.0258</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -623,10 +656,10 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>177000</v>
+        <v>185500</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -647,28 +680,346 @@
         <v>2852449</v>
       </c>
       <c r="J4">
-        <v>2639070</v>
+        <v>2765805</v>
       </c>
       <c r="K4">
-        <v>-0.07480000000000001</v>
+        <v>-0.0304</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
       </c>
       <c r="Q4">
         <v>294146685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>84000</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>-0.15</v>
+      </c>
+      <c r="G5">
+        <v>-0.05</v>
+      </c>
+      <c r="H5">
+        <v>0.1</v>
+      </c>
+      <c r="I5">
+        <v>2950290</v>
+      </c>
+      <c r="J5">
+        <v>2922360</v>
+      </c>
+      <c r="K5">
+        <v>-0.0095</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>291196395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>84100</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>-0.1075</v>
+      </c>
+      <c r="G6">
+        <v>0.025</v>
+      </c>
+      <c r="H6">
+        <v>0.1235</v>
+      </c>
+      <c r="I6">
+        <v>5904092</v>
+      </c>
+      <c r="J6">
+        <v>5851678</v>
+      </c>
+      <c r="K6">
+        <v>-0.0089</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>285292303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>13400</v>
+      </c>
+      <c r="D7">
+        <v>223</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>-0.15</v>
+      </c>
+      <c r="G7">
+        <v>-0.05</v>
+      </c>
+      <c r="H7">
+        <v>0.1</v>
+      </c>
+      <c r="I7">
+        <v>2998658</v>
+      </c>
+      <c r="J7">
+        <v>2970270</v>
+      </c>
+      <c r="K7">
+        <v>-0.0095</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>282293645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>13405</v>
+      </c>
+      <c r="D8">
+        <v>446</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>-0.1075</v>
+      </c>
+      <c r="G8">
+        <v>0.025</v>
+      </c>
+      <c r="H8">
+        <v>0.1235</v>
+      </c>
+      <c r="I8">
+        <v>5998435</v>
+      </c>
+      <c r="J8">
+        <v>5942758</v>
+      </c>
+      <c r="K8">
+        <v>-0.009299999999999999</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>276295210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>84100</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>-0.1075</v>
+      </c>
+      <c r="G9">
+        <v>0.025</v>
+      </c>
+      <c r="H9">
+        <v>0.1235</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>-52414</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>282146888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>13415</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>-0.1075</v>
+      </c>
+      <c r="G10">
+        <v>0.025</v>
+      </c>
+      <c r="H10">
+        <v>0.1235</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>-51243.54000000004</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>288094079.46</v>
       </c>
     </row>
   </sheetData>

--- a/data/master_book.xlsx
+++ b/data/master_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>code</t>
   </si>
@@ -97,15 +97,6 @@
     <t>KODEX 레버리지</t>
   </si>
   <si>
-    <t>Tue Jul 21 15:19:48 2020</t>
-  </si>
-  <si>
-    <t>Tue Jul 21 15:19:51 2020</t>
-  </si>
-  <si>
-    <t>Tue Jul 21 15:19:53 2020</t>
-  </si>
-  <si>
     <t>loaded</t>
   </si>
   <si>
@@ -116,15 +107,6 @@
   </si>
   <si>
     <t>a_sold</t>
-  </si>
-  <si>
-    <t>Tue Jul 21 15:19:55 2020</t>
-  </si>
-  <si>
-    <t>Tue Jul 21 15:30:18 2020</t>
-  </si>
-  <si>
-    <t>Tue Jul 21 15:30:28 2020</t>
   </si>
 </sst>
 </file>
@@ -635,14 +617,14 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2">
+        <v>44033.63875</v>
+      </c>
+      <c r="N3" t="s">
         <v>27</v>
       </c>
-      <c r="N3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
+      <c r="O3" s="2">
+        <v>44033.63875</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -659,7 +641,7 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>185500</v>
+        <v>189000</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -680,22 +662,22 @@
         <v>2852449</v>
       </c>
       <c r="J4">
-        <v>2765805</v>
+        <v>2817990</v>
       </c>
       <c r="K4">
-        <v>-0.0304</v>
+        <v>-0.0121</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2">
+        <v>44033.63875</v>
+      </c>
+      <c r="N4" t="s">
         <v>27</v>
       </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
+      <c r="O4" s="2">
+        <v>44033.63875</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
@@ -741,14 +723,14 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2">
+        <v>44033.63878472222</v>
+      </c>
+      <c r="N5" t="s">
         <v>28</v>
       </c>
-      <c r="N5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" t="s">
-        <v>28</v>
+      <c r="O5" s="2">
+        <v>44033.63878472222</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -794,14 +776,14 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>28</v>
+      <c r="M6" s="2">
+        <v>44033.63878472222</v>
       </c>
       <c r="N6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="O6" s="2">
+        <v>44033.63878472222</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -847,14 +829,14 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>29</v>
+      <c r="M7" s="2">
+        <v>44033.63880787037</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="O7" s="2">
+        <v>44033.63880787037</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -900,14 +882,14 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="2">
+        <v>44033.63880787037</v>
+      </c>
+      <c r="N8" t="s">
         <v>29</v>
       </c>
-      <c r="N8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" t="s">
-        <v>34</v>
+      <c r="O8" s="2">
+        <v>44033.63883101852</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
@@ -953,14 +935,14 @@
       <c r="L9">
         <v>-52414</v>
       </c>
-      <c r="M9" t="s">
-        <v>28</v>
+      <c r="M9" s="2">
+        <v>44033.63878472222</v>
       </c>
       <c r="N9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="O9" s="2">
+        <v>44033.64604166667</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -1004,22 +986,22 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>-51243.54000000004</v>
-      </c>
-      <c r="M10" t="s">
-        <v>29</v>
+        <v>-51243</v>
+      </c>
+      <c r="M10" s="2">
+        <v>44033.63880787037</v>
       </c>
       <c r="N10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="O10" s="2">
+        <v>44033.64615740741</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>288094079.46</v>
+        <v>288094079</v>
       </c>
     </row>
   </sheetData>
